--- a/biology/Zoologie/Eptesicus/Eptesicus.xlsx
+++ b/biology/Zoologie/Eptesicus/Eptesicus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eptesicus est un genre de chauves-souris appelées sérotines en français.
 </t>
@@ -511,7 +523,9 @@
           <t>Noms vernaculaires et noms scientifiques correspondants</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Noms vernaculaires en français, par ordre alphabétique.
 Note : certaines espèces ont plusieurs noms.
@@ -549,9 +563,11 @@
           <t>Liste des sous-genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Mammal Species of the World (version 3, 2005)  (14 nov. 2010)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Mammal Species of the World (version 3, 2005)  (14 nov. 2010) :
 sous-genre Eptesicus (Eptesicus)
 sous-genre Eptesicus (Rhinopterus)</t>
         </is>
@@ -583,12 +599,51 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Espèces d'Europe
-Liste des sérotines d'Europe[2] :
+          <t>Espèces d'Europe</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Liste des sérotines d'Europe :
 Eptesicus serotinus
-Eptesicus nilssoni
-Toutes les espèces
-Selon ITIS      (14 nov. 2010)[3] :
+Eptesicus nilssoni</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Eptesicus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eptesicus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Toutes les espèces</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon ITIS      (14 nov. 2010) :
 Eptesicus baverstocki Kitchener, Jones &amp; Caputi, 1987
 Eptesicus bobrinskoi Kuzyakin, 1935
 Eptesicus bottae (Peters, 1869)
@@ -621,7 +676,7 @@
 Eptesicus tatei Ellerman &amp; Morrison-Scott, 1951
 Eptesicus tenuipinnis (Peters, 1872)
 Eptesicus vulturnus Thomas, 1914
-Selon NCBI  (14 nov. 2010)[4] :
+Selon NCBI  (14 nov. 2010) :
 Eptesicus andersoni
 Eptesicus bottae
 Eptesicus brasiliensis
